--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/cpardom_corona_com_co/Documents/Proyecto_Pricing/Proyecto_Web_Scraping/Scrapping/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1741" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D3C73C7-42EE-477B-BBDF-F25965657DE6}"/>
+  <xr:revisionPtr revIDLastSave="1851" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E12E4B8-2495-470F-A09B-033635035157}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11136" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$B$1:$S$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$S$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$S$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="324">
   <si>
     <t>GMX20902</t>
   </si>
@@ -120,15 +120,6 @@
     <t>250AA104</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Two-Piece-128-gpf-48-Lpf-Round-Front-Toilet-Less-Seat/WHITE-250DA104020</t>
-  </si>
-  <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Two-Piece-128-gpf-48-Lpf-Elongated-Toilet-Less-Seat/WHITE-250CA104020</t>
-  </si>
-  <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Two-Piece-128-gpf-48-Lpf-Chair-Height-Elongated-Toilet-Less-Seat/WHITE-250AA104020</t>
-  </si>
-  <si>
     <t>Premium</t>
   </si>
   <si>
@@ -249,9 +240,6 @@
     <t>https://www.americanstandard-us.com/Toilets-Commercial/Yorkville-Two-Piece-Pressure-Assist-11-gpf-42-Lpf-Chair-Height-Back-Outlet-Elongated-EverClean-Toilet/WHITE-2878100020</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Cadet-3-10-in-Rough-In-16-GPF-Toilet-Tank/WHITE-4019001N020</t>
-  </si>
-  <si>
     <t>https://www.gerber-us.com/north-point-1-28-or-1-6-gpf-elongated-ergoheight-top-spud-bowl/products/us-G0025733</t>
   </si>
   <si>
@@ -264,15 +252,6 @@
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Toilet-Tank-Only/WHITE-4425A104020</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Chair-Height-Elongated-Bowl-Only-Less-Seat/WHITE-3437A101020</t>
-  </si>
-  <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Standard-Height-Elongated-Bowl-Less-Seat/WHITE-3437C101020</t>
-  </si>
-  <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Standard-Height-Round-Front-Bowl-Less-Seat/WHITE-3437D101020</t>
-  </si>
-  <si>
     <t>https://www.gerber-us.com/maxwell-1-28-gpf-12-rough-in-two-piece-elongated-toilet/products/us-GWS20912</t>
   </si>
   <si>
@@ -570,33 +549,12 @@
     <t>https://www.gerber-us.com/maxwell-4-centers-petite-pedestal-bathroom-sink/products/us-G0022504</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Countertop-Bathroom-Sinks/Reliant-Oval-Drop-In-Bathroom-Sink-4-in-Centerset-Holes/WHITE-0476228020</t>
-  </si>
-  <si>
-    <t>https://www.americanstandard-us.com/Undermount-Bathroom-Sinks/Reliant-Oval-Undercounter-Bathroom-Sink/WHITE-0496200020</t>
-  </si>
-  <si>
-    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/24-Inch-Evolution-4-Inch-Centerset-Pedestal-Sink-Top/WHITE-0468004020</t>
-  </si>
-  <si>
     <t>0445004</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Edgemere-4-Inch-Centerset-Pedestal-Sink-Top/WHITE-0445004020</t>
-  </si>
-  <si>
-    <t>https://www.americanstandard-us.com/Undermount-Bathroom-Sinks/Reliant-Rectangular-Undercounter-Bathroom-Sink/WHITE-0614200020</t>
-  </si>
-  <si>
-    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Reliant-22-In-Pedestal-Sink-Top-Only-4-in-Centerset-Holes/WHITE-0467204020</t>
-  </si>
-  <si>
     <t>https://www.americanstandard-us.com/Undermount-Bathroom-Sinks/Estate-Rectangular-Under-Counter-Sink/WHITE-0483000020</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Edgemere-8-Inch-Widespread-Pedestal-Sink-Top/WHITE-0445008020</t>
-  </si>
-  <si>
     <t>G0028380</t>
   </si>
   <si>
@@ -888,12 +846,6 @@
     <t xml:space="preserve">VorMax 12" ADA EL Combo </t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Cadet-3-Elongated-16-gpf-Toilet/WHITE-270CA001020</t>
-  </si>
-  <si>
-    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Floor%20Standing%20Toilets/270CA001/e2tgz8b4vosw9whq3b3wd7lfr8ep1wp3.jpg</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
@@ -927,15 +879,9 @@
     <t>Competencia</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Clean-Pedestal-Lav-4-Inch-CC/BONE-0236004EC021</t>
-  </si>
-  <si>
     <t>G0022589</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/WHITE-4192A004020</t>
-  </si>
-  <si>
     <t>Maxwell  12 ADA EL 1.6 Combo</t>
   </si>
   <si>
@@ -949,6 +895,126 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Two-Piece-Toilets/Reliant®-Two-Piece-1.28-gpf-4.8-Lpf-Round-Front-Toilet-Less-Seat/WHITE-250DA104020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Two-Piece%20Toilets/250DA104/0ett77b1b1ra6os6kcebpyv7xry1tzqn.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Two-Piece-Toilets/Reliant®-Two-Piece-1.28-gpf-4.8-Lpf-Elongated-Toilet-Less-Seat/WHITE-250CA104020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Two-Piece%20Toilets/250CA104/9mokbucpc7v8a6bozu1c486v9xmfdrfx.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Two-Piece-Toilets/Reliant®-Two-Piece-1.28-gpf-4.8-Lpf-Chair-Height-Elongated-Toilet-Less-Seat/WHITE-250AA104020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Two-Piece%20Toilets/250AA104/ttainj49u6h4z83t9x1rfujqlwczde2n.jpg</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Commercial/Commercial%20Toilets/Toilets%20Commercial/2467016/iohq4ez03nygrp8ovsx392x1jq5b1d6n.jpg</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Commercial/Commercial%20Toilets/Toilets%20Commercial/4142016/x74xk6iqr59k28nqb5ee1zcxu9e7hb6j.jpg</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Commercial/Commercial%20Toilets/Toilets%20Commercial/3043001/u212vqifh7pabzuh7ldokr8yr95sum2p.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Toilet-Tanks/Reliant®-1.28-gpf-4.8-Lpf-Toilet-Tank/WHITE-4425A104020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Toilet%20Tanks/4425A104/vubqic3cg1f7838eun69clu8yvvp7eul.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Toilet-Tanks/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/WHITE-4192A004020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Toilet%20Tanks/4192A004/cqstubndt6v7sa23pzwbj9m4d15zresp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Toilet-Bowls/Reliant®-Chair-Height-Elongated-Bowl/WHITE-3437A101020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Toilet%20Bowls/3437A101/689qexydii8ldeq3y0y51qlei9caaag5.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Toilet-Bowls/Reliant®-Standard-Height-Elongated-Bowl-/WHITE-3437C101020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Toilet%20Bowls/3437C101/3xqol61p4bp478phqirqbtbwf3956bl5.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Toilet-Bowls/Reliant®-Standard-Height-Round-Front-Bowl-/WHITE-3437D101020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Toilet%20Bowls/3437D101/bcutcwm0awuf6w0hq42l7v7naaxf6twy.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Toilet-Tanks/Cadet-3-10-in-Rough-In-16-gpf-Toilet-Tank/WHITE-4019001N020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Toilet%20Tanks/4019001N/wt17vfcz8u8vxe2pnj2lc54sert1x769.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Countertop-Bathroom-Sinks/Reliant®-Oval-Drop-In-Bathroom-Sink%2C-4-in.-Centerset-Holes/WHITE-0476228020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Bathroom%20Sinks/Countertop%20Bathroom%20Sinks/0476228/4yaw35rd6uulxnzaardzflphmh85ybzm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Undermount-Bathroom-Sinks/Reliant®-Oval-Under-Counter-Bathroom-Sink/WHITE-0496200020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Bathroom%20Sinks/Undermount%20Bathrooms%20Sinks/0496200/k0tqtghcqm6ncragb1f7f7nig0sdom4u.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/24-in-Evolution-4-in-Centerset-Pedestal-Sink-Top/WHITE-0468004020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Bathroom%20Sinks/Pedestal%20Bathroom%20Sinks/0468004/eqyoo4hra35gd5ngvorjm0jb6gswdc0h.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Edgemere®-4-in.-Centerset-Pedestal-Sink-Top/WHITE-0445004020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Bathroom%20Sinks/Pedestal%20Bathroom%20Sinks/0445004/atn2xl1c1d0jgzary2nd9w49gx4oocl5.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Undermount-Bathroom-Sinks/Reliant®-Rectangular-Under-Counter-Bathroom-Sink/WHITE-0614200020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Bathroom%20Sinks/Undermount%20Bathrooms%20Sinks/0614200/701m0foej5k7ohzpbpw96d2p7ebdg8qt.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Cadet-4-in-Centerset-Pedestal-Sink-Top/WHITE-0236004020</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Reliant®-22-in.-Pedestal-Sink-Top-Only%2C-4-in.-Centerset-Holes/WHITE-0467204020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Bathroom%20Sinks/Pedestal%20Bathroom%20Sinks/0467204/e819lt03a2p6vcbkb9aucimjrupzhz90.jpg</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Bathroom%20Sinks/Undermount%20Bathrooms%20Sinks/0483000/mth1pn8th3gvy3lc6rxm16aw9z5knilc.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Edgemere®-8-in.-Widespread-Pedestal-Sink-Top/WHITE-0445008020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Bathroom%20Sinks/Pedestal%20Bathroom%20Sinks/0445008/apym381mmjfpe0sfs5o4fqpagwcbffvv.jpg</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Two-Piece-Toilets/Cadet-3-Elongated-16-gpf-Toilet/WHITE-270CA001020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Two-Piece%20Toilets/270CA001/e2tgz8b4vosw9whq3b3wd7lfr8ep1wp3.jpg</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1172,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1137,7 +1203,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1186,6 +1251,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -5183,38 +5260,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="60.109375" customWidth="1"/>
-    <col min="15" max="15" width="169" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="105.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.21875" customWidth="1"/>
+    <col min="15" max="15" width="87" customWidth="1"/>
+    <col min="16" max="16" width="105.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -5236,10 +5313,10 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
@@ -5257,7 +5334,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>18</v>
@@ -5266,12 +5343,12 @@
         <v>3</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
-        <v>300</v>
+      <c r="A2" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>4</v>
@@ -5284,17 +5361,17 @@
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="E2" s="11">
-        <f t="shared" ref="E2:E50" si="0">COUNTIF($C$2:$C$51,C2)</f>
+        <f t="shared" ref="E2:E18" si="0">COUNTIF($C$2:$C$50,C2)</f>
         <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I2" s="11" t="str">
         <f>VLOOKUP(F2,[1]query!$D:$O,4,0)</f>
@@ -5304,38 +5381,38 @@
         <v>12</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M2" s="14">
         <v>1.6</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R2" s="21">
+        <v>216</v>
+      </c>
+      <c r="R2" s="20">
         <v>0.41</v>
       </c>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>300</v>
+      <c r="A3" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="11" t="str">
         <f>VLOOKUP(C3,Mansfield!$D$1:$L$18,9,0)</f>
@@ -5349,10 +5426,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I3" s="11" t="str">
         <f>VLOOKUP(F3,[1]query!$D:$O,4,0)</f>
@@ -5362,38 +5439,38 @@
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M3" s="14">
         <v>1.6</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R3" s="21">
+        <v>216</v>
+      </c>
+      <c r="R3" s="20">
         <v>0.41</v>
       </c>
       <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>300</v>
+      <c r="A4" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>VLOOKUP(C4,Mansfield!$D$1:$L$18,9,0)</f>
@@ -5407,10 +5484,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="11" t="str">
         <f>VLOOKUP(F4,[1]query!$D:$O,4,0)</f>
@@ -5420,32 +5497,32 @@
         <v>12</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M4" s="14">
         <v>1.6</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R4" s="21">
+        <v>216</v>
+      </c>
+      <c r="R4" s="20">
         <v>0.41</v>
       </c>
       <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
-        <v>300</v>
+      <c r="A5" s="51" t="s">
+        <v>284</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>6</v>
@@ -5465,10 +5542,10 @@
         <v>22</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I5" s="11" t="str">
         <f>VLOOKUP(F5,[1]query!$D:$O,4,0)</f>
@@ -5478,38 +5555,40 @@
         <v>12</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M5" s="14">
         <v>1.28</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="13"/>
+        <v>285</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>286</v>
+      </c>
       <c r="Q5" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R5" s="21">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R5" s="20">
+        <v>0.5</v>
       </c>
       <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>300</v>
+      <c r="A6" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>VLOOKUP(C6,Mansfield!$D$1:$L$18,9,0)</f>
@@ -5523,10 +5602,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" s="11" t="str">
         <f>VLOOKUP(F6,[1]query!$D:$O,4,0)</f>
@@ -5536,38 +5615,40 @@
         <v>12</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M6" s="14">
         <v>1.28</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="11"/>
+        <v>287</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>288</v>
+      </c>
       <c r="Q6" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R6" s="21">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R6" s="20">
+        <v>0.5</v>
       </c>
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
-        <v>300</v>
+      <c r="A7" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>VLOOKUP(C7,Mansfield!$D$1:$L$18,9,0)</f>
@@ -5581,10 +5662,10 @@
         <v>24</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I7" s="11" t="str">
         <f>VLOOKUP(F7,[1]query!$D:$O,4,0)</f>
@@ -5594,38 +5675,40 @@
         <v>12</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M7" s="14">
         <v>1.28</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>290</v>
+      </c>
       <c r="Q7" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R7" s="21">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R7" s="20">
+        <v>0.5</v>
       </c>
       <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
-        <v>300</v>
+      <c r="A8" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>VLOOKUP(C8,Mansfield!$D$1:$L$18,9,0)</f>
@@ -5636,13 +5719,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="11" t="str">
         <f>VLOOKUP(F8,[1]query!$D:$O,4,0)</f>
@@ -5652,32 +5735,32 @@
         <v>12</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M8" s="14">
         <v>1.6</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R8" s="21">
+        <v>216</v>
+      </c>
+      <c r="R8" s="20">
         <v>0.34</v>
       </c>
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
-        <v>300</v>
+      <c r="A9" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -5694,13 +5777,13 @@
         <v>2</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="11" t="str">
         <f>VLOOKUP(F9,[1]query!$D:$O,4,0)</f>
@@ -5715,371 +5798,371 @@
         <v>1.6</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R9" s="21">
+        <v>216</v>
+      </c>
+      <c r="R9" s="20">
         <v>0.41</v>
       </c>
       <c r="S9" s="11">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="26" t="str">
+      <c r="C10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="25" t="str">
         <f>VLOOKUP(C10,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO TANK 3173 CTL 1.28</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="28">
+      <c r="F10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="27">
         <v>12</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="28">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="27">
         <v>1.28</v>
       </c>
-      <c r="N10" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="R10" s="29">
+      <c r="N10" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="R10" s="28">
         <v>0.41</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="25">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>160010007</v>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="D11" s="25" t="str">
         <f>VLOOKUP(C11,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO TANK 160 1.6</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="28">
+      <c r="F11" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="27">
         <v>12</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="28">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="27">
         <v>1.6</v>
       </c>
-      <c r="N11" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="R11" s="29">
+      <c r="N11" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="R11" s="28">
         <v>0.41</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="25">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="26" t="str">
+      <c r="C12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="25" t="str">
         <f>VLOOKUP(C12,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 137 1.6</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="28">
+      <c r="F12" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="27">
         <v>12</v>
       </c>
-      <c r="K12" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="28">
+      <c r="K12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="27">
         <v>1.28</v>
       </c>
-      <c r="N12" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="R12" s="29">
+      <c r="N12" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="25"/>
+      <c r="P12" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="R12" s="28">
         <v>0.41</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="25">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="26" t="str">
+      <c r="C13" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="25" t="str">
         <f>VLOOKUP(C13,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 135 EL 1.6</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="28">
+      <c r="F13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="27">
         <v>12</v>
       </c>
-      <c r="K13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="28">
+      <c r="K13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="27">
         <v>1.28</v>
       </c>
-      <c r="N13" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q13" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="R13" s="29">
+      <c r="N13" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="R13" s="28">
         <v>0.41</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="25">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="26" t="str">
+      <c r="C14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="25" t="str">
         <f>VLOOKUP(C14,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 130 1.6</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="28">
+      <c r="F14" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="27">
         <v>12</v>
       </c>
-      <c r="K14" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="28">
+      <c r="K14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="27">
         <v>1.6</v>
       </c>
-      <c r="N14" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="R14" s="29">
+      <c r="N14" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="R14" s="28">
         <v>0.41</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="25">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="26" t="s">
+    <row r="15" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="26" t="str">
+      <c r="C15" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="25" t="str">
         <f>VLOOKUP(C15,Mansfield!$D$1:$L$18,9,0)</f>
         <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28">
+      <c r="F15" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27">
         <v>1.6</v>
       </c>
-      <c r="N15" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="R15" s="29">
+      <c r="N15" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="R15" s="28">
         <v>0.41</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="25">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
-        <v>300</v>
+      <c r="A16" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="11" t="str">
         <f>VLOOKUP(C16,Mansfield!$D$1:$L$18,9,0)</f>
@@ -6093,44 +6176,46 @@
         <v>2467016</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J16" s="11">
         <v>12</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M16" s="11">
         <v>1.6</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="13"/>
+        <v>184</v>
+      </c>
+      <c r="O16" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="Q16" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R16" s="21">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R16" s="20">
+        <v>0.5</v>
       </c>
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
-        <v>300</v>
+      <c r="A17" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>6</v>
@@ -6150,13 +6235,13 @@
         <v>4142016</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="11"/>
@@ -6165,29 +6250,31 @@
         <v>1.6</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>292</v>
+      </c>
       <c r="Q17" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R17" s="21">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R17" s="20">
+        <v>0.5</v>
       </c>
       <c r="S17" s="11"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
-        <v>300</v>
+      <c r="A18" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D18" s="11" t="str">
         <f>VLOOKUP(C18,Mansfield!$D$1:$L$18,9,0)</f>
@@ -6201,50 +6288,52 @@
         <v>3043001</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18" s="14">
         <v>12</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="O18" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>293</v>
+      </c>
       <c r="Q18" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R18" s="21">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R18" s="20">
+        <v>0.5</v>
       </c>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="52" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="10" t="str">
         <f>VLOOKUP(C19,Mansfield!$D$1:$L$18,9,0)</f>
@@ -6254,42 +6343,44 @@
         <f>COUNTIF($B$21:$B$21,C19)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="48" t="s">
-        <v>36</v>
+      <c r="F19" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="49"/>
+        <v>43</v>
+      </c>
+      <c r="J19" s="48"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="50">
+      <c r="M19" s="49">
         <v>1.28</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="10"/>
+        <v>115</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="Q19" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="R19" s="51">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R19" s="50">
+        <v>0.5</v>
       </c>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
-        <v>301</v>
+    <row r="20" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
+        <v>282</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>6</v>
@@ -6302,20 +6393,20 @@
         <v>ALTO TANK 160 1.6</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E20:E49" si="1">COUNTIF($C$2:$C$50,C20)</f>
         <v>2</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -6324,220 +6415,228 @@
         <v>1.6</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="P20" s="11"/>
+      <c r="P20" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="Q20" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R20" s="21">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R20" s="20">
+        <v>0.5</v>
       </c>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="11" t="str">
+      <c r="C21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="str">
         <f>VLOOKUP(C21,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 137 1.6</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="0"/>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="F21" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="14">
+      <c r="J21" s="48">
         <v>12</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="17">
+      <c r="K21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="49">
         <v>1.28</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R21" s="21">
-        <v>0.34</v>
-      </c>
-      <c r="S21" s="11"/>
+      <c r="N21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R21" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="11" t="str">
+      <c r="C22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="10" t="str">
         <f>VLOOKUP(C22,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 135 EL 1.6</v>
       </c>
-      <c r="E22" s="11">
-        <f t="shared" si="0"/>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="F22" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="48">
+        <v>12</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="14">
-        <v>12</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="17">
+      <c r="L22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="49">
         <v>1.28</v>
       </c>
-      <c r="N22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R22" s="21">
-        <v>0.34</v>
-      </c>
-      <c r="S22" s="11"/>
+      <c r="N22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R22" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="B23" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="11" t="str">
+      <c r="C23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10" t="str">
         <f>VLOOKUP(C23,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 130 1.6</v>
       </c>
-      <c r="E23" s="11">
-        <f t="shared" si="0"/>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="48">
+        <v>12</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="14">
-        <v>12</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="14">
+      <c r="L23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="48">
         <v>1.28</v>
       </c>
-      <c r="N23" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R23" s="21">
-        <v>0.34</v>
-      </c>
-      <c r="S23" s="11"/>
+      <c r="N23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R23" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
-        <v>301</v>
+    <row r="24" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>282</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D24" s="11" t="str">
         <f>VLOOKUP(C24,Mansfield!$D$1:$L$18,9,0)</f>
         <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -6546,217 +6645,219 @@
         <v>1.6</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="O24" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="Q24" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R24" s="21">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R24" s="20">
+        <v>0.5</v>
       </c>
       <c r="S24" s="11"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
-        <v>300</v>
+      <c r="A25" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D25" s="11" t="str">
         <f>VLOOKUP(C25,Mansfield!$D$1:$L$18,9,0)</f>
         <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J25" s="14">
         <v>10</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M25" s="14">
         <v>1.28</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R25" s="21">
+        <v>216</v>
+      </c>
+      <c r="R25" s="20">
         <v>0.41</v>
       </c>
       <c r="S25" s="11"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
-        <v>300</v>
+      <c r="A26" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" s="11" t="str">
         <f>VLOOKUP(C26,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J26" s="14">
         <v>12</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M26" s="14">
         <v>1.28</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R26" s="21">
+        <v>216</v>
+      </c>
+      <c r="R26" s="20">
         <v>0.41</v>
       </c>
       <c r="S26" s="11"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
-        <v>300</v>
+      <c r="A27" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D27" s="11" t="str">
         <f>VLOOKUP(C27,Mansfield!$D$1:$L$18,9,0)</f>
         <v>HET 3489-V El 1.28 Combo </v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J27" s="14">
         <v>12</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M27" s="14">
         <v>1.28</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R27" s="21">
+        <v>216</v>
+      </c>
+      <c r="R27" s="20">
         <v>0.41</v>
       </c>
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
-        <v>300</v>
+      <c r="A28" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D28" s="8" t="str">
         <f>VLOOKUP(C28,Mansfield!$D$1:$L$47,9,0)</f>
         <v>237 Lav</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -6764,46 +6865,46 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R28" s="22">
+        <v>216</v>
+      </c>
+      <c r="R28" s="21">
         <v>0.41</v>
       </c>
       <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
-        <v>300</v>
+      <c r="A29" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D29" s="8" t="str">
         <f>VLOOKUP(C29,Mansfield!$D$1:$L$47,9,0)</f>
         <v>217 Lav</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -6811,46 +6912,46 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R29" s="22">
+        <v>216</v>
+      </c>
+      <c r="R29" s="21">
         <v>0.41</v>
       </c>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
-        <v>300</v>
+    <row r="30" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>139</v>
+      <c r="C30" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="D30" s="8" t="str">
         <f>VLOOKUP(C30,Mansfield!$D$1:$L$47,9,0)</f>
         <v>292 Lav</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -6858,46 +6959,46 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="O30" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="R30" s="45">
+        <v>216</v>
+      </c>
+      <c r="R30" s="44">
         <v>0.41</v>
       </c>
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
-        <v>300</v>
+      <c r="A31" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D31" s="8" t="str">
         <f>VLOOKUP(C31,Mansfield!$D$1:$L$47,9,0)</f>
         <v>328 4" LAV</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -6905,14 +7006,14 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R31" s="22">
+        <v>216</v>
+      </c>
+      <c r="R31" s="21">
         <v>0.41</v>
       </c>
       <c r="S31" s="3">
@@ -6920,31 +7021,31 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
-        <v>300</v>
+      <c r="A32" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D32" s="8" t="str">
         <f>VLOOKUP(C32,Mansfield!$D$1:$L$47,9,0)</f>
         <v>218 COVINGTON LAV</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -6952,46 +7053,46 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R32" s="22">
+        <v>216</v>
+      </c>
+      <c r="R32" s="21">
         <v>0.41</v>
       </c>
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
-        <v>300</v>
+      <c r="A33" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D33" s="8" t="str">
         <f>VLOOKUP(C33,Mansfield!$D$1:$L$47,9,0)</f>
         <v>348 4" LAV</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -6999,46 +7100,46 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="P33" s="9"/>
       <c r="Q33" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R33" s="22">
+        <v>216</v>
+      </c>
+      <c r="R33" s="21">
         <v>0.41</v>
       </c>
       <c r="S33" s="3"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
-        <v>300</v>
+      <c r="A34" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D34" s="8" t="str">
         <f>VLOOKUP(C34,Mansfield!$D$1:$L$47,9,0)</f>
         <v>272 4" LAV</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -7046,46 +7147,46 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R34" s="22">
+        <v>216</v>
+      </c>
+      <c r="R34" s="21">
         <v>0.41</v>
       </c>
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
-        <v>300</v>
+      <c r="A35" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D35" s="8" t="str">
         <f>VLOOKUP(C35,Mansfield!$D$1:$L$47,9,0)</f>
         <v>251 4" LAV</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -7093,46 +7194,46 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="P35" s="9"/>
       <c r="Q35" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R35" s="22">
+        <v>216</v>
+      </c>
+      <c r="R35" s="21">
         <v>0.41</v>
       </c>
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
-        <v>300</v>
+      <c r="A36" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D36" s="8" t="str">
         <f>VLOOKUP(C36,Mansfield!$D$1:$L$47,9,0)</f>
         <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -7140,46 +7241,46 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R36" s="22">
+        <v>216</v>
+      </c>
+      <c r="R36" s="21">
         <v>0.41</v>
       </c>
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
-        <v>300</v>
+      <c r="A37" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D37" s="8" t="str">
         <f>VLOOKUP(C37,Mansfield!$D$1:$L$47,9,0)</f>
         <v>328 8" LAV</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -7187,43 +7288,43 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R37" s="22">
+        <v>216</v>
+      </c>
+      <c r="R37" s="21">
         <v>0.41</v>
       </c>
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
-        <v>300</v>
+      <c r="A38" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D38" s="18" t="str">
         <f>VLOOKUP(C38,Mansfield!$D$1:$L$47,9,0)</f>
         <v>237 Lav</v>
       </c>
       <c r="E38" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
@@ -7232,223 +7333,233 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="O38" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="P38" s="18"/>
+        <v>148</v>
+      </c>
+      <c r="O38" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>307</v>
+      </c>
       <c r="Q38" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R38" s="23">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R38" s="22">
+        <v>0.5</v>
       </c>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B39" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="18" t="str">
+      <c r="C39" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="10" t="str">
         <f>VLOOKUP(C39,Mansfield!$D$1:$L$47,9,0)</f>
         <v>217 Lav</v>
       </c>
-      <c r="E39" s="18">
-        <f t="shared" si="0"/>
+      <c r="E39" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="O39" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R39" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="S39" s="3"/>
+      <c r="F39" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O39" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="18" t="str">
+      <c r="C40" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="10" t="str">
         <f>VLOOKUP(C40,Mansfield!$D$1:$L$47,9,0)</f>
         <v>292 Lav</v>
       </c>
-      <c r="E40" s="18">
-        <f t="shared" si="0"/>
+      <c r="E40" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="O40" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R40" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="S40" s="3"/>
+      <c r="F40" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="O40" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R40" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B41" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="18" t="str">
+      <c r="C41" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="10" t="str">
         <f>VLOOKUP(C41,Mansfield!$D$1:$L$47,9,0)</f>
         <v>328 4" LAV</v>
       </c>
-      <c r="E41" s="18">
-        <f t="shared" si="0"/>
+      <c r="E41" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="O41" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R41" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="S41" s="3"/>
+      <c r="F41" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O41" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R41" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="18" t="str">
+      <c r="C42" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="10" t="str">
         <f>VLOOKUP(C42,Mansfield!$D$1:$L$47,9,0)</f>
         <v>218 COVINGTON LAV</v>
       </c>
-      <c r="E42" s="18">
-        <f t="shared" si="0"/>
+      <c r="E42" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="O42" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R42" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="S42" s="3"/>
+      <c r="F42" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="O42" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R42" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="52" t="s">
-        <v>300</v>
+      <c r="A43" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D43" s="18" t="str">
         <f>VLOOKUP(C43,Mansfield!$D$1:$L$47,9,0)</f>
         <v>348 4" LAV</v>
       </c>
       <c r="E43" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
@@ -7457,43 +7568,45 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="O43" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="P43" s="18"/>
+        <v>153</v>
+      </c>
+      <c r="O43" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="P43" s="18" t="s">
+        <v>316</v>
+      </c>
       <c r="Q43" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R43" s="23">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R43" s="22">
+        <v>0.5</v>
       </c>
       <c r="S43" s="3"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
-        <v>300</v>
+      <c r="A44" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D44" s="18" t="str">
         <f>VLOOKUP(C44,Mansfield!$D$1:$L$47,9,0)</f>
         <v>272 4" LAV</v>
       </c>
       <c r="E44" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
@@ -7502,43 +7615,45 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="O44" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="P44" s="18"/>
+        <v>154</v>
+      </c>
+      <c r="O44" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="Q44" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R44" s="23">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R44" s="22">
+        <v>0.5</v>
       </c>
       <c r="S44" s="3"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="52" t="s">
-        <v>300</v>
+      <c r="A45" s="51" t="s">
+        <v>282</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D45" s="18" t="str">
         <f>VLOOKUP(C45,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>251 4" LAV</v>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="E45" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
@@ -7549,316 +7664,263 @@
       <c r="N45" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="O45" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="P45" s="20"/>
+      <c r="O45" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>319</v>
+      </c>
       <c r="Q45" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R45" s="23">
-        <v>0.34</v>
+        <v>216</v>
+      </c>
+      <c r="R45" s="22">
+        <v>0.5</v>
       </c>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B46" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="18" t="str">
+      <c r="C46" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="10" t="str">
         <f>VLOOKUP(C46,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="E46" s="18">
-        <f t="shared" si="0"/>
+        <v>328 8" LAV</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R46" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="S46" s="3"/>
+      <c r="F46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="O46" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R46" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" s="18" t="s">
+    <row r="47" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B47" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="18" t="str">
+      <c r="C47" s="37">
+        <v>155010000</v>
+      </c>
+      <c r="D47" s="43" t="str">
         <f>VLOOKUP(C47,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="E47" s="18">
-        <f t="shared" si="0"/>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+      </c>
+      <c r="E47" s="37">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="O47" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R47" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="S47" s="3"/>
+      <c r="F47" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="J47" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="O47" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="P47" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q47" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="R47" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="S47" s="37"/>
     </row>
-    <row r="48" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B48" s="38" t="s">
+    <row r="48" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="43" t="str">
+        <f>VLOOKUP(C48,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>Summit 384/386  ADA 1.28 Combo</v>
+      </c>
+      <c r="E48" s="37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J48" s="37">
+        <v>12</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="37">
+        <v>1.28</v>
+      </c>
+      <c r="N48" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="O48" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="P48" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q48" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="R48" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="S48" s="37"/>
+    </row>
+    <row r="49" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="37">
         <v>155010000</v>
       </c>
-      <c r="D48" s="44" t="str">
-        <f>VLOOKUP(C48,Mansfield!$D$1:$L$47,9,0)</f>
+      <c r="D49" s="43" t="str">
+        <f>VLOOKUP(C49,Mansfield!$D$1:$L$47,9,0)</f>
         <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
       </c>
-      <c r="E48" s="38">
-        <f t="shared" si="0"/>
+      <c r="E49" s="37">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="N48" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="O48" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="P48" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q48" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="R48" s="40">
-        <v>0.34</v>
-      </c>
-      <c r="S48" s="38"/>
-    </row>
-    <row r="49" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="44" t="str">
-        <f>VLOOKUP(C49,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>Summit 384/386  ADA 1.28 Combo</v>
-      </c>
-      <c r="E49" s="38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="G49" s="38" t="s">
+      <c r="F49" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G49" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="J49" s="38">
-        <v>12</v>
-      </c>
-      <c r="K49" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="L49" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="M49" s="38">
-        <v>1.28</v>
-      </c>
-      <c r="N49" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="O49" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="P49" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q49" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="R49" s="40">
-        <v>0.34</v>
-      </c>
-      <c r="S49" s="38"/>
-    </row>
-    <row r="50" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="38">
-        <v>155010000</v>
-      </c>
-      <c r="D50" s="44" t="str">
-        <f>VLOOKUP(C50,Mansfield!$D$1:$L$47,9,0)</f>
-        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
-      </c>
-      <c r="E50" s="38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="N50" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q50" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="R50" s="40">
+      <c r="H49" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q49" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="R49" s="39">
         <v>0.41</v>
       </c>
-      <c r="S50" s="38">
+      <c r="S49" s="37">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:S50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
+  <autoFilter ref="A1:S49" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
   <hyperlinks>
     <hyperlink ref="O5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
-    <hyperlink ref="O16" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
-    <hyperlink ref="O17" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
-    <hyperlink ref="O45" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
-    <hyperlink ref="O3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
-    <hyperlink ref="O4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
-    <hyperlink ref="O8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
-    <hyperlink ref="O33" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
-    <hyperlink ref="O35" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
-    <hyperlink ref="O36" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
-    <hyperlink ref="O37" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
-    <hyperlink ref="P12" r:id="rId12" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
-    <hyperlink ref="O6" r:id="rId13" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
-    <hyperlink ref="O47" r:id="rId14" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
-    <hyperlink ref="P49" r:id="rId15" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
-    <hyperlink ref="O29" r:id="rId16" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
-    <hyperlink ref="O28" r:id="rId17" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
-    <hyperlink ref="O32" r:id="rId18" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
-    <hyperlink ref="O43" r:id="rId19" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
-    <hyperlink ref="O20" r:id="rId20" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
-    <hyperlink ref="O19" r:id="rId21" xr:uid="{33E3BD64-4671-4EAE-AE76-7BB763277D53}"/>
-    <hyperlink ref="O22" r:id="rId22" xr:uid="{C23D5593-2A03-4542-946A-8CDC001D918F}"/>
-    <hyperlink ref="O23" r:id="rId23" xr:uid="{09F05D35-B2A5-4E48-B6E8-748BF9AB43BB}"/>
-    <hyperlink ref="O24" r:id="rId24" xr:uid="{F3AB3D43-BD1C-44A0-8C36-6E28C0B99C1C}"/>
-    <hyperlink ref="O38" r:id="rId25" xr:uid="{06663D88-D93B-4EC1-B535-1E6191C89EA9}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
+    <hyperlink ref="O8" r:id="rId4" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
+    <hyperlink ref="O33" r:id="rId5" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
+    <hyperlink ref="O35" r:id="rId6" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
+    <hyperlink ref="O36" r:id="rId7" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
+    <hyperlink ref="O37" r:id="rId8" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="P12" r:id="rId9" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
+    <hyperlink ref="O6" r:id="rId10" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="O29" r:id="rId11" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
+    <hyperlink ref="O28" r:id="rId12" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
+    <hyperlink ref="O32" r:id="rId13" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -7867,21 +7929,21 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.77734375" customWidth="1"/>
     <col min="13" max="13" width="35.5546875" customWidth="1"/>
-    <col min="14" max="14" width="184.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="184.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7904,10 +7966,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
@@ -7925,7 +7987,7 @@
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -7942,7 +8004,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7950,35 +8012,35 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H2" s="3">
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" s="4">
         <v>1.6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P2" s="3">
         <v>0.42749999999999999</v>
@@ -7990,43 +8052,43 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H3" s="3">
         <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K3" s="4">
         <v>1.6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P3" s="3">
         <v>0.42749999999999999</v>
@@ -8038,43 +8100,43 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H4" s="3">
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4" s="4">
         <v>1.6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P4" s="3">
         <v>0.42749999999999999</v>
@@ -8084,45 +8146,45 @@
         <v>317.63</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="10">
         <v>12</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="35">
+      <c r="I5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="34">
         <v>1.28</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P5" s="10">
         <v>0.42749999999999999</v>
@@ -8131,49 +8193,49 @@
       <c r="R5" s="10">
         <v>354.87</v>
       </c>
-      <c r="S5" s="36" t="s">
-        <v>293</v>
+      <c r="S5" s="35" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H6" s="3">
         <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K6" s="4">
         <v>1.28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P6" s="3">
         <v>0.42749999999999999</v>
@@ -8185,43 +8247,43 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3">
         <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K7" s="4">
         <v>1.6</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P7" s="3">
         <v>0.42749999999999999</v>
@@ -8231,141 +8293,141 @@
         <v>644.74</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H8" s="10">
         <v>12</v>
       </c>
-      <c r="I8" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>50</v>
+      <c r="I8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="K8" s="10">
         <v>1.28</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P8" s="10">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q8" s="10"/>
-      <c r="R8" s="37">
+      <c r="R8" s="36">
         <v>52.257166153334992</v>
       </c>
-      <c r="S8" s="36" t="s">
-        <v>293</v>
+      <c r="S8" s="35" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P9" s="10">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q9" s="10"/>
-      <c r="R9" s="37">
+      <c r="R9" s="36">
         <v>90.068346141637491</v>
       </c>
-      <c r="S9" s="36" t="s">
-        <v>293</v>
+      <c r="S9" s="35" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H10" s="3">
         <v>12</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K10" s="3">
         <v>1.28</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P10" s="3">
         <v>0.42749999999999999</v>
@@ -8377,7 +8439,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8385,35 +8447,35 @@
         <v>123010000</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P11" s="3">
         <v>0.42749999999999999</v>
@@ -8423,45 +8485,45 @@
         <v>165.65897915102249</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="25" t="s">
+    <row r="12" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="24">
         <v>10</v>
       </c>
-      <c r="I12" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="25">
+      <c r="I12" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="24">
         <v>1.28</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P12" s="8">
         <v>0.42749999999999999</v>
@@ -8473,43 +8535,43 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P13" s="3">
         <v>0.42749999999999999</v>
@@ -8521,43 +8583,43 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>160010007</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P14" s="3">
         <v>0.42749999999999999</v>
@@ -8569,43 +8631,43 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3">
         <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K15" s="3">
         <v>1.6</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P15" s="3">
         <v>0.42749999999999999</v>
@@ -8617,43 +8679,43 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" s="3">
         <v>12</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K16" s="3">
         <v>1.6</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P16" s="3">
         <v>0.42749999999999999</v>
@@ -8665,43 +8727,43 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H17" s="3">
         <v>12</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K17" s="3">
         <v>1.6</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P17" s="3">
         <v>0.42749999999999999</v>
@@ -8713,43 +8775,43 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P18" s="3">
         <v>0.42749999999999999</v>
@@ -8761,15 +8823,15 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -8778,34 +8840,34 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P19" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="33">
+      <c r="R19" s="32">
         <v>52.942869297499996</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -8814,34 +8876,34 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P20" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q20" s="8"/>
-      <c r="R20" s="33">
+      <c r="R20" s="32">
         <v>85.042520952999979</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -8850,34 +8912,34 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P21" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q21" s="8"/>
-      <c r="R21" s="33">
+      <c r="R21" s="32">
         <v>157.47435999099997</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -8886,34 +8948,34 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P22" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q22" s="8"/>
-      <c r="R22" s="33">
+      <c r="R22" s="32">
         <v>216.42350989999997</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -8922,34 +8984,34 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="9" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P23" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q23" s="8"/>
-      <c r="R23" s="33">
+      <c r="R23" s="32">
         <v>143.22306508899996</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -8958,34 +9020,34 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P24" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q24" s="8"/>
-      <c r="R24" s="33">
+      <c r="R24" s="32">
         <v>127.29442705849998</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -8994,34 +9056,34 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P25" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q25" s="8"/>
-      <c r="R25" s="33">
+      <c r="R25" s="32">
         <v>112.84723806849998</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -9030,34 +9092,34 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P26" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q26" s="8"/>
-      <c r="R26" s="33">
+      <c r="R26" s="32">
         <v>96.55129862299998</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -9066,34 +9128,34 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P27" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q27" s="8"/>
-      <c r="R27" s="33">
+      <c r="R27" s="32">
         <v>179.00866749999997</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -9102,26 +9164,26 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P28" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q28" s="8"/>
-      <c r="R28" s="33">
+      <c r="R28" s="32">
         <v>216.42350989999997</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -9129,28 +9191,28 @@
         <v>155010000</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K29" s="10">
         <v>1.28</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
@@ -9158,15 +9220,15 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="36" t="s">
-        <v>283</v>
+      <c r="S29" s="35" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R28" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}"/>
+  <autoFilter ref="A1:S29" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}"/>
   <hyperlinks>
     <hyperlink ref="N23" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
   </hyperlinks>
@@ -9185,32 +9247,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" t="s">
         <v>200</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" t="s">
-        <v>214</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -9218,16 +9280,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -9242,16 +9304,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E3">
         <v>96.63</v>
@@ -9266,16 +9328,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>128.22999999999999</v>
@@ -9290,16 +9352,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F5">
         <v>0.42749999999999999</v>
@@ -9311,16 +9373,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F6">
         <v>0.42749999999999999</v>
@@ -9332,16 +9394,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F7">
         <v>0.42749999999999999</v>
@@ -9353,16 +9415,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>3151</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F8">
         <v>0.42749999999999999</v>
@@ -9374,16 +9436,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>3486</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F9">
         <v>0.42749999999999999</v>
@@ -9395,16 +9457,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F10">
         <v>0.42749999999999999</v>
@@ -9416,13 +9478,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F11">
         <v>0.42749999999999999</v>
@@ -9434,16 +9496,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C12">
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F12">
         <v>0.42749999999999999</v>
@@ -9455,13 +9517,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F13">
         <v>0.42749999999999999</v>
@@ -9472,57 +9534,57 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="D17" s="46">
+      <c r="B17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="45">
         <f>COUNTIF($B$17:$B$17,B17)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="I17" s="26">
+      <c r="E17" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="25">
         <v>12</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="P17" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="29">
+      <c r="J17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q17" s="28">
         <v>0.41</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="25">
         <v>546</v>
       </c>
     </row>
@@ -9531,60 +9593,60 @@
         <v>6</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="D18" s="46">
+        <v>82</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="45">
         <f>COUNTIF($B$18:$B$18,B18)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <v>2878100</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I18" s="11">
         <v>12</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L18" s="11">
         <v>1.1000000000000001</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q18" s="21">
+        <v>216</v>
+      </c>
+      <c r="Q18" s="20">
         <v>0.34</v>
       </c>
       <c r="R18" s="11"/>
     </row>
-    <row r="21" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="10" t="str">
         <f>VLOOKUP(B21,Mansfield!$D$1:$L$18,9,0)</f>
@@ -9594,35 +9656,35 @@
         <f>COUNTIF($B$21:$B$21,B21)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="48" t="s">
-        <v>36</v>
+      <c r="E21" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="49"/>
+        <v>43</v>
+      </c>
+      <c r="I21" s="48"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="50">
+      <c r="L21" s="49">
         <v>1.28</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q21" s="51">
+        <v>216</v>
+      </c>
+      <c r="Q21" s="50">
         <v>0.34</v>
       </c>
       <c r="R21" s="10"/>
